--- a/Statystyki_2018/Template/okrr.xlsx
+++ b/Statystyki_2018/Template/okrr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB94F92-3E23-4E33-8575-9ACF2F5AFB96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DC3D3C-E6FC-4BFA-85CE-72220E4F4449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Npw, Nk, Rc(a)" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
   </sheets>
   <definedNames>
     <definedName name="__xlnm._FilterDatabase" localSheetId="2">POMOCE!$O$1:$T$69</definedName>
-    <definedName name="__xlnm.Print_Area" localSheetId="0">'Npw, Nk, Rc(a)'!$A$1:$AJ$9</definedName>
+    <definedName name="__xlnm.Print_Area" localSheetId="0">'Npw, Nk, Rc(a)'!$A$1:$AK$9</definedName>
     <definedName name="__xlnm.Print_Area" localSheetId="1">'Opm, Op'!$A$1:$N$8</definedName>
     <definedName name="funkcja">POMOCE!$B$2:$B$10</definedName>
     <definedName name="LISTA_miesiąc">POMOCE!$L$2:$M$13</definedName>
     <definedName name="LISTA_sąd">POMOCE!$D$2:$E$14</definedName>
     <definedName name="miesiąc">POMOCE!$J$2:$J$13</definedName>
     <definedName name="POSIEDZENIA">'Opm, Op'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Npw, Nk, Rc(a)'!$A$1:$AJ$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Npw, Nk, Rc(a)'!$A$1:$AK$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Opm, Op'!$A$1:$N$8</definedName>
     <definedName name="RUCH">'Npw, Nk, Rc(a)'!#REF!</definedName>
     <definedName name="sąd">POMOCE!$C$2:$C$14</definedName>
@@ -41,7 +41,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="143">
   <si>
     <t>Informacja statystyczna z ruchu spraw</t>
   </si>
@@ -782,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1179,12 +1181,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1246,78 +1263,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1329,9 +1274,99 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,51 +1382,33 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1403,6 +1420,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1856,11 +1879,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE7" sqref="AE7:AE9"/>
+      <selection pane="bottomLeft" activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1883,12 +1906,12 @@
     <col min="16" max="16" width="18.109375" customWidth="1"/>
     <col min="17" max="17" width="8.5546875" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="31" width="8" customWidth="1"/>
-    <col min="32" max="35" width="7.88671875" customWidth="1"/>
-    <col min="36" max="36" width="31.44140625" customWidth="1"/>
+    <col min="19" max="32" width="8" customWidth="1"/>
+    <col min="33" max="36" width="7.88671875" customWidth="1"/>
+    <col min="37" max="37" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1896,407 +1919,417 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
     </row>
-    <row r="2" spans="1:36" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
     </row>
-    <row r="3" spans="1:36" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
     </row>
-    <row r="4" spans="1:36" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
     </row>
-    <row r="5" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
     </row>
-    <row r="6" spans="1:36" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:37" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="46" t="s">
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="47" t="s">
+      <c r="P6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="35" t="s">
+      <c r="Q6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="41" t="s">
+      <c r="R6" s="31"/>
+      <c r="S6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
       <c r="AD6" s="24"/>
       <c r="AE6" s="4"/>
-      <c r="AF6" s="33" t="s">
+      <c r="AF6" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AG6" s="34" t="s">
+      <c r="AH6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="34" t="s">
+      <c r="AI6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AI6" s="35" t="s">
+      <c r="AJ6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AJ6" s="36" t="s">
+      <c r="AK6" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="37" t="s">
+    <row r="7" spans="1:37" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="43" t="s">
         <v>28</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="40" t="s">
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26" t="s">
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="26" t="s">
+      <c r="Y7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="26" t="s">
+      <c r="Z7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AA7" s="26" t="s">
+      <c r="AA7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="26" t="s">
+      <c r="AB7" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AC7" s="26" t="s">
+      <c r="AC7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD7" s="32" t="s">
+      <c r="AD7" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AE7" s="27" t="s">
+      <c r="AE7" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="36"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="40"/>
     </row>
-    <row r="8" spans="1:36" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="52"/>
+    <row r="8" spans="1:37" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="29" t="s">
+      <c r="I8" s="30"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="30" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="40"/>
-      <c r="T8" s="30" t="s">
+      <c r="S8" s="44"/>
+      <c r="T8" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="32" t="s">
+      <c r="U8" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="36"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="40"/>
     </row>
-    <row r="9" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="52"/>
+    <row r="9" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="30"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="50"/>
       <c r="U9" s="7" t="s">
         <v>43</v>
       </c>
@@ -2306,25 +2339,62 @@
       <c r="W9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="25" t="s">
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="36"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="40"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="43">
+  <mergeCells count="44">
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="AF6:AF9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="AG6:AG8"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="AI6:AI8"/>
+    <mergeCell ref="AJ6:AJ8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="Y7:Y9"/>
+    <mergeCell ref="Z7:Z9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="F1:AK5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="AK6:AK9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:AC6"/>
+    <mergeCell ref="X7:X9"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -2333,41 +2403,6 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="F1:AJ5"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="AJ6:AJ9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:AC6"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AC7:AC9"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="AF6:AF8"/>
-    <mergeCell ref="AG6:AG8"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="AI6:AI8"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="I6:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="F1">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
@@ -2457,22 +2492,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
       <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.4">
@@ -2481,8 +2516,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2500,8 +2535,8 @@
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2519,17 +2554,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="11"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -2545,88 +2580,88 @@
       <c r="AA4" s="12"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="53" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="59" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="54" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56" t="s">
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="L7" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="M7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="57" t="s">
+      <c r="N7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="53"/>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="54"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
@@ -2639,26 +2674,15 @@
       <c r="J8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="53"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="59"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:N5"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
     <mergeCell ref="O6:O8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:J7"/>
@@ -2667,6 +2691,17 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="F6:N6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:N5"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.19652777777777777" right="0.19652777777777777" top="0.19652777777777777" bottom="0.19722222222222222" header="0.51180555555555551" footer="0.31527777777777777"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -3521,35 +3556,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="20" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
     </row>
     <row r="2" spans="1:27" s="20" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -3571,25 +3606,25 @@
       <c r="K2" s="65"/>
       <c r="L2" s="65"/>
       <c r="M2" s="65"/>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Z2" s="71" t="s">
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Z2" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="AA2" s="72" t="s">
+      <c r="AA2" s="70" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3605,24 +3640,24 @@
       <c r="E3" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66" t="s">
+      <c r="G3" s="71"/>
+      <c r="H3" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66" t="s">
+      <c r="I3" s="71"/>
+      <c r="J3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="67" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="72" t="s">
         <v>133</v>
       </c>
       <c r="P3" s="65" t="s">
@@ -3631,24 +3666,24 @@
       <c r="Q3" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="66" t="s">
+      <c r="R3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="72"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="70"/>
     </row>
     <row r="4" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
@@ -3680,8 +3715,8 @@
       <c r="M4" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="72"/>
       <c r="P4" s="65"/>
       <c r="Q4" s="65"/>
       <c r="R4" s="23" t="s">
@@ -3708,12 +3743,17 @@
       <c r="Y4" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="72"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="70"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="21">
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="B2:B4"/>
@@ -3730,11 +3770,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
